--- a/ArticleManage/main_working_folder/output_folders/Data 113 Adsorption of Hexavalent Chromium/Data113_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 113 Adsorption of Hexavalent Chromium/Data113_all_graphs_excel.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="SAC600_3_1" sheetId="1" r:id="rId1"/>
-    <sheet name="SBP10" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 SAC600_3_1  0-1-0-1400" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 SBP10  0-1-0-1400 " sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -101,7 +101,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SAC600_3_1</a:t>
+              <a:t>Izoterma adsorpcji probki SAC600_3_1 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -160,12 +160,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SAC600_3_1!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 SAC600_3_1  0-1-0-1400'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SAC600_3_1!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 SAC600_3_1  0-1-0-1400'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -178,6 +178,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -247,6 +249,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1400"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -411,7 +415,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SBP10</a:t>
+              <a:t>Izoterma adsorpcji probki SBP10 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -470,12 +474,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SBP10!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 SBP10  0-1-0-1400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SBP10!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 SBP10  0-1-0-1400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -488,6 +492,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -557,6 +563,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1400"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 113 Adsorption of Hexavalent Chromium/Data113_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 113 Adsorption of Hexavalent Chromium/Data113_all_graphs_excel.xlsx
@@ -2185,7 +2185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2206,525 +2206,469 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0319</v>
+        <v>0.0654</v>
       </c>
       <c r="B3" s="0">
-        <v>352.9899</v>
+        <v>396.8983</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0484</v>
+        <v>0.4502</v>
       </c>
       <c r="B4" s="0">
-        <v>378.7306</v>
+        <v>569.8615</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0654</v>
+        <v>0.4877</v>
       </c>
       <c r="B5" s="0">
-        <v>396.8983</v>
+        <v>584.073</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0821</v>
+        <v>0.5216</v>
       </c>
       <c r="B6" s="0">
-        <v>410.5657</v>
+        <v>592.1392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0988</v>
+        <v>0.5583</v>
       </c>
       <c r="B7" s="0">
-        <v>424.8615</v>
+        <v>605.2024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1156</v>
+        <v>0.5913</v>
       </c>
       <c r="B8" s="0">
-        <v>434.9157</v>
+        <v>617.0389</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1323</v>
+        <v>0.6236</v>
       </c>
       <c r="B9" s="0">
-        <v>447.0121</v>
+        <v>628.1628</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.149</v>
+        <v>0.6594</v>
       </c>
       <c r="B10" s="0">
-        <v>459.3683</v>
+        <v>642.6157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1658</v>
+        <v>0.6909</v>
       </c>
       <c r="B11" s="0">
-        <v>467.4346</v>
+        <v>655.3405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1825</v>
+        <v>0.7248</v>
       </c>
       <c r="B12" s="0">
-        <v>476.6248</v>
+        <v>668.9293</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1992</v>
+        <v>0.7546</v>
       </c>
       <c r="B13" s="0">
-        <v>484.0868</v>
+        <v>685.9743</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.216</v>
+        <v>0.7877</v>
       </c>
       <c r="B14" s="0">
-        <v>491.2085</v>
+        <v>707.8649</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2327</v>
+        <v>0.8183</v>
       </c>
       <c r="B15" s="0">
-        <v>498.3821</v>
+        <v>734.3938</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2494</v>
+        <v>0.8501</v>
       </c>
       <c r="B16" s="0">
-        <v>505.0663</v>
+        <v>769.6796</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2662</v>
+        <v>0.906</v>
       </c>
       <c r="B17" s="0">
-        <v>510.9503</v>
+        <v>864.3567</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2829</v>
+        <v>0.9245</v>
       </c>
       <c r="B18" s="0">
-        <v>517.0298</v>
+        <v>915.5888</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2996</v>
+        <v>0.9564</v>
       </c>
       <c r="B19" s="0">
-        <v>522.5755</v>
+        <v>1019.2781</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3164</v>
+        <v>1.0003</v>
       </c>
       <c r="B20" s="0">
-        <v>529.4877</v>
+        <v>1243.8591</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3331</v>
+        <v>0.9469</v>
       </c>
       <c r="B21" s="0">
-        <v>533.3129</v>
+        <v>966.8508</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3498</v>
+        <v>0.973</v>
       </c>
       <c r="B22" s="0">
-        <v>538.7564</v>
+        <v>1075.1381</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3666</v>
+        <v>0.9912</v>
       </c>
       <c r="B23" s="0">
-        <v>544.2918</v>
+        <v>1185.3591</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3833</v>
+        <v>0.9783</v>
       </c>
       <c r="B24" s="0">
-        <v>549.2818</v>
+        <v>1133.1492</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="B25" s="0">
-        <v>554.8439</v>
+        <v>1303.3149</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4168</v>
+        <v>1.0008</v>
       </c>
       <c r="B26" s="0">
-        <v>558.7862</v>
+        <v>1364.2265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4335</v>
+        <v>0.8809</v>
       </c>
       <c r="B27" s="0">
-        <v>565.3621</v>
+        <v>816.0221</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.4502</v>
+        <v>0.4183</v>
       </c>
       <c r="B28" s="0">
-        <v>569.8615</v>
+        <v>560.7735</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.467</v>
+        <v>0.3829</v>
       </c>
       <c r="B29" s="0">
-        <v>575.5674</v>
+        <v>553.0387</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.4837</v>
+        <v>0.3484</v>
       </c>
       <c r="B30" s="0">
-        <v>581.1724</v>
+        <v>541.4365</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5004</v>
+        <v>0.3073</v>
       </c>
       <c r="B31" s="0">
-        <v>585.4926</v>
+        <v>529.8343</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.5171</v>
+        <v>0.2928</v>
       </c>
       <c r="B32" s="0">
-        <v>590.2055</v>
+        <v>524.0331</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.5339</v>
+        <v>0.2784</v>
       </c>
       <c r="B33" s="0">
-        <v>598.2174</v>
+        <v>518.232</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.5506</v>
+        <v>0.2631</v>
       </c>
       <c r="B34" s="0">
-        <v>602.3019</v>
+        <v>514.3646</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.5673</v>
+        <v>0.2478</v>
       </c>
       <c r="B35" s="0">
-        <v>607.8212</v>
+        <v>508.5635</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.5841</v>
+        <v>0.2333</v>
       </c>
       <c r="B36" s="0">
-        <v>615.1052</v>
+        <v>502.7624</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.6008</v>
+        <v>0.2188</v>
       </c>
       <c r="B37" s="0">
-        <v>618.6399</v>
+        <v>496.9613</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.6175</v>
+        <v>0.206</v>
       </c>
       <c r="B38" s="0">
-        <v>624.2954</v>
+        <v>491.1602</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.6343</v>
+        <v>0.1915</v>
       </c>
       <c r="B39" s="0">
-        <v>631.836</v>
+        <v>483.4254</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.651</v>
+        <v>0.1786</v>
       </c>
       <c r="B40" s="0">
-        <v>638.7482</v>
+        <v>477.6243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.6677</v>
+        <v>0.1665</v>
       </c>
       <c r="B41" s="0">
-        <v>645.8176</v>
+        <v>471.8232</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.6845</v>
+        <v>0.1545</v>
       </c>
       <c r="B42" s="0">
-        <v>651.4731</v>
+        <v>464.0884</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.7012</v>
+        <v>0.1432</v>
       </c>
       <c r="B43" s="0">
-        <v>658.6209</v>
+        <v>456.3536</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.7179</v>
+        <v>0.1311</v>
       </c>
       <c r="B44" s="0">
-        <v>665.0619</v>
+        <v>448.6188</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.7347</v>
+        <v>0.1223</v>
       </c>
       <c r="B45" s="0">
-        <v>672.9953</v>
+        <v>444.7514</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.7514</v>
+        <v>0.1102</v>
       </c>
       <c r="B46" s="0">
-        <v>682.1069</v>
+        <v>437.0166</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.7681</v>
+        <v>0.1006</v>
       </c>
       <c r="B47" s="0">
-        <v>694.8317</v>
+        <v>431.2155</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.7849</v>
+        <v>0.0917</v>
       </c>
       <c r="B48" s="0">
-        <v>704.9644</v>
+        <v>423.4807</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.8016</v>
+        <v>0.0821</v>
       </c>
       <c r="B49" s="0">
-        <v>720.8704</v>
+        <v>417.6796</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.8183</v>
+        <v>0.0748</v>
       </c>
       <c r="B50" s="0">
-        <v>734.3938</v>
+        <v>408.011</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.8351</v>
+        <v>0.0579</v>
       </c>
       <c r="B51" s="0">
-        <v>756.8769</v>
+        <v>390.6077</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.8517</v>
+        <v>0.0499</v>
       </c>
       <c r="B52" s="0">
-        <v>770.6464</v>
+        <v>382.8729</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.9084</v>
+        <v>0.0442</v>
       </c>
       <c r="B53" s="0">
-        <v>867.2573</v>
+        <v>375.1381</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.9245</v>
+        <v>0.0378</v>
       </c>
       <c r="B54" s="0">
-        <v>915.5888</v>
+        <v>367.4033</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.9564</v>
+        <v>0.0306</v>
       </c>
       <c r="B55" s="0">
-        <v>1019.2781</v>
+        <v>359.6685</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.9991</v>
+        <v>0.0249</v>
       </c>
       <c r="B56" s="0">
-        <v>1241.9254</v>
+        <v>348.0663</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>1</v>
+        <v>0.0209</v>
       </c>
       <c r="B57" s="0">
-        <v>1335.7271</v>
+        <v>338.3978</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.9469</v>
+        <v>0.0153</v>
       </c>
       <c r="B58" s="0">
-        <v>966.8508</v>
+        <v>326.7956</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.9735</v>
+        <v>0.0121</v>
       </c>
       <c r="B59" s="0">
-        <v>1077.0718</v>
+        <v>313.2597</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.9912</v>
+        <v>0.0097</v>
       </c>
       <c r="B60" s="0">
-        <v>1185.3591</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>0.9783</v>
-      </c>
-      <c r="B61" s="0">
-        <v>1133.1492</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
-        <v>1.0008</v>
-      </c>
-      <c r="B62" s="0">
-        <v>1303.3149</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0">
-        <v>1</v>
-      </c>
-      <c r="B63" s="0">
-        <v>1363.2597</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0">
-        <v>0.8809</v>
-      </c>
-      <c r="B64" s="0">
-        <v>816.0221</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0">
-        <v>0.0201</v>
-      </c>
-      <c r="B65" s="0">
-        <v>338.3978</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0">
-        <v>0.0105</v>
-      </c>
-      <c r="B66" s="0">
-        <v>303.5912</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0">
-        <v>0.0048</v>
-      </c>
-      <c r="B67" s="0">
-        <v>266.8508</v>
-      </c>
-    </row>
-    <row r="68"/>
+        <v>299.7238</v>
+      </c>
+    </row>
+    <row r="61"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -2733,7 +2677,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2754,589 +2698,629 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>156.9908</v>
+        <v>930.1105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>109.3818</v>
+        <v>891.4365</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0</v>
+        <v>0.9968</v>
       </c>
       <c r="B5" s="0">
-        <v>72.5466</v>
+        <v>864.3646</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0009</v>
+        <v>0.9751</v>
       </c>
       <c r="B6" s="0">
-        <v>36.3935</v>
+        <v>846.9613</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0013</v>
+        <v>0.9364</v>
       </c>
       <c r="B7" s="0">
-        <v>245.8135</v>
+        <v>833.4254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0002</v>
+        <v>0.9002</v>
       </c>
       <c r="B8" s="0">
-        <v>200.2136</v>
+        <v>816.0221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0005</v>
+        <v>0.8624</v>
       </c>
       <c r="B9" s="0">
-        <v>6.4069</v>
+        <v>796.6851</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0041</v>
+        <v>0.8294</v>
       </c>
       <c r="B10" s="0">
-        <v>298.1142</v>
+        <v>779.2818</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0101</v>
+        <v>0.7965</v>
       </c>
       <c r="B11" s="0">
-        <v>337.3312</v>
+        <v>761.8785</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0236</v>
+        <v>0.7619</v>
       </c>
       <c r="B12" s="0">
-        <v>374.2316</v>
+        <v>746.4088</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0382</v>
+        <v>0.7281</v>
       </c>
       <c r="B13" s="0">
-        <v>397.9307</v>
+        <v>730.9392</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0528</v>
+        <v>0.6951</v>
       </c>
       <c r="B14" s="0">
-        <v>418.7173</v>
+        <v>719.337</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0675</v>
+        <v>0.6597</v>
       </c>
       <c r="B15" s="0">
-        <v>437.3394</v>
+        <v>705.8011</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0821</v>
+        <v>0.6275</v>
       </c>
       <c r="B16" s="0">
-        <v>452.0616</v>
+        <v>692.2652</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0968</v>
+        <v>0.5921</v>
       </c>
       <c r="B17" s="0">
-        <v>466.6043</v>
+        <v>682.5967</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1114</v>
+        <v>0.5591</v>
       </c>
       <c r="B18" s="0">
-        <v>478.005</v>
+        <v>672.9282</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.126</v>
+        <v>0.527</v>
       </c>
       <c r="B19" s="0">
-        <v>489.5852</v>
+        <v>661.326</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1407</v>
+        <v>0.4932</v>
       </c>
       <c r="B20" s="0">
-        <v>502.7685</v>
+        <v>653.5912</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1553</v>
+        <v>0.4594</v>
       </c>
       <c r="B21" s="0">
-        <v>513.8409</v>
+        <v>643.9227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.17</v>
+        <v>0.4232</v>
       </c>
       <c r="B22" s="0">
-        <v>521.8663</v>
+        <v>630.3867</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1846</v>
+        <v>0.387</v>
       </c>
       <c r="B23" s="0">
-        <v>531.4896</v>
+        <v>620.7182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1992</v>
+        <v>0.3532</v>
       </c>
       <c r="B24" s="0">
-        <v>540.7538</v>
+        <v>609.116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2139</v>
+        <v>0.3146</v>
       </c>
       <c r="B25" s="0">
-        <v>548.5338</v>
+        <v>595.5801</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.2285</v>
+        <v>0.3017</v>
       </c>
       <c r="B26" s="0">
-        <v>556.1043</v>
+        <v>591.7127</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.2432</v>
+        <v>0.2872</v>
       </c>
       <c r="B27" s="0">
-        <v>563.8963</v>
+        <v>587.8453</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.2578</v>
+        <v>0.2751</v>
       </c>
       <c r="B28" s="0">
-        <v>569.48</v>
+        <v>580.1105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.2724</v>
+        <v>0.2623</v>
       </c>
       <c r="B29" s="0">
-        <v>575.4047</v>
+        <v>576.2431</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.2871</v>
+        <v>0.2486</v>
       </c>
       <c r="B30" s="0">
-        <v>581.9399</v>
+        <v>568.5083</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.3017</v>
+        <v>0.2373</v>
       </c>
       <c r="B31" s="0">
-        <v>585.9855</v>
+        <v>562.7072</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.3164</v>
+        <v>0.2245</v>
       </c>
       <c r="B32" s="0">
-        <v>593.7177</v>
+        <v>554.9724</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.331</v>
+        <v>0.2132</v>
       </c>
       <c r="B33" s="0">
-        <v>595.9074</v>
+        <v>551.105</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.3456</v>
+        <v>0.2019</v>
       </c>
       <c r="B34" s="0">
-        <v>602.5151</v>
+        <v>545.3039</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.3603</v>
+        <v>0.1915</v>
       </c>
       <c r="B35" s="0">
-        <v>605.5429</v>
+        <v>537.5691</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.3749</v>
+        <v>0.1794</v>
       </c>
       <c r="B36" s="0">
-        <v>611.2526</v>
+        <v>529.8343</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.3896</v>
+        <v>0.1681</v>
       </c>
       <c r="B37" s="0">
-        <v>615.7773</v>
+        <v>524.0331</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.4042</v>
+        <v>0.1585</v>
       </c>
       <c r="B38" s="0">
-        <v>621.4564</v>
+        <v>518.232</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.4188</v>
+        <v>0.148</v>
       </c>
       <c r="B39" s="0">
-        <v>626.644</v>
+        <v>508.5635</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.4335</v>
+        <v>0.1384</v>
       </c>
       <c r="B40" s="0">
-        <v>632.8871</v>
+        <v>502.7624</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.4481</v>
+        <v>0.1287</v>
       </c>
       <c r="B41" s="0">
-        <v>638.2792</v>
+        <v>495.0276</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.4628</v>
+        <v>0.1207</v>
       </c>
       <c r="B42" s="0">
-        <v>643.8988</v>
+        <v>489.2265</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.4774</v>
+        <v>0.111</v>
       </c>
       <c r="B43" s="0">
-        <v>651.6189</v>
+        <v>483.4254</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.4915</v>
+        <v>0.1014</v>
       </c>
       <c r="B44" s="0">
-        <v>649.9202</v>
+        <v>473.7569</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.5062</v>
+        <v>0.0925</v>
       </c>
       <c r="B45" s="0">
-        <v>662.3913</v>
+        <v>464.0884</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.5227</v>
+        <v>0.0845</v>
       </c>
       <c r="B46" s="0">
-        <v>660.8203</v>
+        <v>458.2873</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.5365</v>
+        <v>0.0772</v>
       </c>
       <c r="B47" s="0">
-        <v>663.648</v>
+        <v>448.6188</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.5539</v>
+        <v>0.0708</v>
       </c>
       <c r="B48" s="0">
-        <v>670.2746</v>
+        <v>442.8177</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.5674</v>
+        <v>0.0636</v>
       </c>
       <c r="B49" s="0">
-        <v>672.9481</v>
+        <v>433.1492</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.5932</v>
+        <v>0.0563</v>
       </c>
       <c r="B50" s="0">
-        <v>680.5573</v>
+        <v>423.4807</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.6066</v>
+        <v>0.0483</v>
       </c>
       <c r="B51" s="0">
-        <v>686.2699</v>
+        <v>415.7459</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.6275</v>
+        <v>0.0426</v>
       </c>
       <c r="B52" s="0">
-        <v>690.8781</v>
+        <v>406.0773</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.6599</v>
+        <v>0.037</v>
       </c>
       <c r="B53" s="0">
-        <v>703.3061</v>
+        <v>398.3425</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.6806</v>
+        <v>0.0314</v>
       </c>
       <c r="B54" s="0">
-        <v>712.2432</v>
+        <v>388.674</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.6964</v>
+        <v>0.0265</v>
       </c>
       <c r="B55" s="0">
-        <v>717.1865</v>
+        <v>379.0055</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.7255</v>
+        <v>0.0201</v>
       </c>
       <c r="B56" s="0">
-        <v>728.6231</v>
+        <v>367.4033</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.7345</v>
+        <v>0.0169</v>
       </c>
       <c r="B57" s="0">
-        <v>733.6083</v>
+        <v>359.6685</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.7548</v>
+        <v>0.0129</v>
       </c>
       <c r="B58" s="0">
-        <v>743.1039</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.7639</v>
+        <v>0.0097</v>
       </c>
       <c r="B59" s="0">
-        <v>744.3956</v>
+        <v>338.3978</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.7838</v>
+        <v>0.0064</v>
       </c>
       <c r="B60" s="0">
-        <v>756.7538</v>
+        <v>326.7956</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.7969</v>
+        <v>0.0048</v>
       </c>
       <c r="B61" s="0">
-        <v>760.4194</v>
+        <v>313.2597</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.8147</v>
+        <v>0.0032</v>
       </c>
       <c r="B62" s="0">
-        <v>771.7304</v>
+        <v>293.9227</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.8326</v>
+        <v>0.0024</v>
       </c>
       <c r="B63" s="0">
-        <v>780.5155</v>
+        <v>280.3867</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.8481</v>
+        <v>0.0016</v>
       </c>
       <c r="B64" s="0">
-        <v>789.3252</v>
+        <v>264.9171</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.8664</v>
+        <v>0.0008</v>
       </c>
       <c r="B65" s="0">
-        <v>800.2984</v>
+        <v>249.4475</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.8811</v>
+        <v>0.0008</v>
       </c>
       <c r="B66" s="0">
-        <v>807.5483</v>
+        <v>233.9779</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.8971</v>
+        <v>0.0008</v>
       </c>
       <c r="B67" s="0">
-        <v>819.5414</v>
+        <v>216.5746</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.9114</v>
+        <v>0.0004</v>
       </c>
       <c r="B68" s="0">
-        <v>825.4723</v>
+        <v>201.105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.926</v>
+        <v>0.0004</v>
       </c>
       <c r="B69" s="0">
-        <v>832.1451</v>
+        <v>186.6022</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.9407</v>
+        <v>0</v>
       </c>
       <c r="B70" s="0">
-        <v>833.8508</v>
+        <v>172.0994</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.9553</v>
+        <v>0</v>
       </c>
       <c r="B71" s="0">
-        <v>839.0514</v>
+        <v>156.6298</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="B72" s="0">
-        <v>844.3922</v>
+        <v>145.0276</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.9846</v>
+        <v>0</v>
       </c>
       <c r="B73" s="0">
-        <v>854.6847</v>
+        <v>127.6243</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.998</v>
+        <v>0</v>
       </c>
       <c r="B74" s="0">
-        <v>875.2345</v>
+        <v>108.2873</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.9998</v>
+        <v>0</v>
       </c>
       <c r="B75" s="0">
-        <v>927.7945</v>
-      </c>
-    </row>
-    <row r="76"/>
+        <v>88.9503</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>0</v>
+      </c>
+      <c r="B76" s="0">
+        <v>71.547</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>0</v>
+      </c>
+      <c r="B77" s="0">
+        <v>58.011</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>0</v>
+      </c>
+      <c r="B78" s="0">
+        <v>38.674</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>0</v>
+      </c>
+      <c r="B79" s="0">
+        <v>23.2044</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>0</v>
+      </c>
+      <c r="B80" s="0">
+        <v>7.7348</v>
+      </c>
+    </row>
+    <row r="81"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 113 Adsorption of Hexavalent Chromium/Data113_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 113 Adsorption of Hexavalent Chromium/Data113_all_graphs_excel.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 SAC600_3_1  0-1-0-1400" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 SBP10  0-1-0-1400 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 SAC600_3_1  0&amp;1&amp;0&amp;1400" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 SBP10  0&amp;1&amp;0&amp;1400 " sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -160,12 +160,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 SAC600_3_1  0-1-0-1400'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 SAC600_3_1  0&amp;1&amp;0&amp;1400'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 SAC600_3_1  0-1-0-1400'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 SAC600_3_1  0&amp;1&amp;0&amp;1400'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -474,12 +474,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 SBP10  0-1-0-1400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 SBP10  0&amp;1&amp;0&amp;1400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 SBP10  0-1-0-1400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 SBP10  0&amp;1&amp;0&amp;1400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
